--- a/KetQuaTest_AddToCartServlet.xlsx
+++ b/KetQuaTest_AddToCartServlet.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>ID</t>
   </si>
@@ -35,10 +35,34 @@
     <t>Trạng Thái</t>
   </si>
   <si>
+    <t>CART_SERV_08</t>
+  </si>
+  <si>
+    <t>ID Sản phẩm lỗi format</t>
+  </si>
+  <si>
+    <t>ID='abc'</t>
+  </si>
+  <si>
+    <t>ID='abc' -&gt; Exception</t>
+  </si>
+  <si>
+    <t>Vào catch -&gt; Báo lỗi</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>CART_SERV_02</t>
   </si>
   <si>
     <t>Servlet: Thêm thành công</t>
+  </si>
+  <si>
+    <t>PID: 1, Qty: 2</t>
   </si>
   <si>
     <t>1. User OK
@@ -46,30 +70,21 @@
 3. Service add OK</t>
   </si>
   <si>
-    <t>PID: 1, Qty: 2</t>
-  </si>
-  <si>
     <t>Redirect: Referer</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
     <t>CART_SERV_05</t>
   </si>
   <si>
     <t>Servlet: Số lượng âm</t>
   </si>
   <si>
+    <t>Qty='-5'</t>
+  </si>
+  <si>
     <t>Input quantity='-5'</t>
   </si>
   <si>
-    <t>Qty='-5'</t>
-  </si>
-  <si>
     <t>Vẫn gọi service</t>
   </si>
   <si>
@@ -79,12 +94,12 @@
     <t>Servlet: Số lượng là chữ</t>
   </si>
   <si>
+    <t>Qty='abc'</t>
+  </si>
+  <si>
     <t>Input quantity='abc'</t>
   </si>
   <si>
-    <t>Qty='abc'</t>
-  </si>
-  <si>
     <t>Mặc định thêm 1</t>
   </si>
   <si>
@@ -92,44 +107,74 @@
   </si>
   <si>
     <t>Servlet: Chưa đăng nhập</t>
+  </si>
+  <si>
+    <t>User: null</t>
   </si>
   <si>
     <t>1. User session = null
 2. Call doPost</t>
   </si>
   <si>
-    <t>User: null</t>
-  </si>
-  <si>
     <t>Redirect: Login.jsp</t>
   </si>
   <si>
+    <t>CART_SERV_07</t>
+  </si>
+  <si>
+    <t>Không có Referer Header</t>
+  </si>
+  <si>
+    <t>Ref=null</t>
+  </si>
+  <si>
+    <t>Header Referer = null</t>
+  </si>
+  <si>
+    <t>Redirect default path</t>
+  </si>
+  <si>
     <t>CART_SERV_03</t>
   </si>
   <si>
     <t>Servlet: SP không tồn tại</t>
+  </si>
+  <si>
+    <t>PID: 999</t>
   </si>
   <si>
     <t>1. User OK
 2. Mock DAO trả về null</t>
   </si>
   <si>
-    <t>PID: 999</t>
-  </si>
-  <si>
     <t>Báo lỗi addCartError</t>
   </si>
   <si>
+    <t>CART_SERV_09</t>
+  </si>
+  <si>
+    <t>Giỏ hàng trong Session Null</t>
+  </si>
+  <si>
+    <t>Cart=null</t>
+  </si>
+  <si>
+    <t>Session.getAttribute('cart') = null</t>
+  </si>
+  <si>
+    <t>Service được gọi với null</t>
+  </si>
+  <si>
     <t>CART_SERV_06</t>
   </si>
   <si>
     <t>Servlet: Lỗi Database</t>
   </si>
   <si>
+    <t>DB Error</t>
+  </si>
+  <si>
     <t>DAO ném Exception</t>
-  </si>
-  <si>
-    <t>DB Error</t>
   </si>
   <si>
     <t>Redirect &amp; Báo lỗi</t>
@@ -210,17 +255,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="14.69921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.94140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.33984375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="12.7421875" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="19.24609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="25.5703125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.80859375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="30.47265625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="22.95703125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="16.2109375" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -386,6 +431,75 @@
         <v>13</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
